--- a/data/commodity/Lithium.xlsx
+++ b/data/commodity/Lithium.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\PycharmProjects\AlternativeData\data\commodity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36BCFC1F-5CD1-43D0-AE62-3A7334F8B5E9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB330AD9-848B-43DC-BEB6-71764A77B493}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17985" yWindow="780" windowWidth="18015" windowHeight="20685" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2186" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2188" uniqueCount="16">
   <si>
     <t>source</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -511,13 +511,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H2173"/>
+  <dimension ref="A1:H2175"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <pane xSplit="8" ySplit="5" topLeftCell="I2157" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="5" topLeftCell="I1952" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="J2175" sqref="J2175"/>
+      <selection pane="bottomRight" activeCell="M1951" sqref="M1951"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -39536,9 +39536,15 @@
       <c r="D1944" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E1944" s="18"/>
-      <c r="F1944" s="18"/>
-      <c r="G1944" s="18"/>
+      <c r="E1944" s="18">
+        <v>76135</v>
+      </c>
+      <c r="F1944" s="18">
+        <v>76700</v>
+      </c>
+      <c r="G1944" s="18">
+        <v>75000</v>
+      </c>
       <c r="H1944" s="10">
         <v>75850</v>
       </c>
@@ -39556,9 +39562,15 @@
       <c r="D1945" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E1945" s="18"/>
-      <c r="F1945" s="18"/>
-      <c r="G1945" s="18"/>
+      <c r="E1945" s="18">
+        <v>75835</v>
+      </c>
+      <c r="F1945" s="18">
+        <v>76700</v>
+      </c>
+      <c r="G1945" s="18">
+        <v>75100</v>
+      </c>
       <c r="H1945" s="10">
         <v>75900</v>
       </c>
@@ -39576,9 +39588,15 @@
       <c r="D1946" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E1946" s="18"/>
-      <c r="F1946" s="18"/>
-      <c r="G1946" s="18"/>
+      <c r="E1946" s="18">
+        <v>75915</v>
+      </c>
+      <c r="F1946" s="18">
+        <v>76600</v>
+      </c>
+      <c r="G1946" s="18">
+        <v>74300</v>
+      </c>
       <c r="H1946" s="10">
         <v>75750</v>
       </c>
@@ -39596,9 +39614,15 @@
       <c r="D1947" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E1947" s="18"/>
-      <c r="F1947" s="18"/>
-      <c r="G1947" s="18"/>
+      <c r="E1947" s="18">
+        <v>75758</v>
+      </c>
+      <c r="F1947" s="18">
+        <v>76300</v>
+      </c>
+      <c r="G1947" s="18">
+        <v>74400</v>
+      </c>
       <c r="H1947" s="10">
         <v>75350</v>
       </c>
@@ -39616,9 +39640,15 @@
       <c r="D1948" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E1948" s="18"/>
-      <c r="F1948" s="18"/>
-      <c r="G1948" s="18"/>
+      <c r="E1948" s="18">
+        <v>75365</v>
+      </c>
+      <c r="F1948" s="18">
+        <v>76200</v>
+      </c>
+      <c r="G1948" s="18">
+        <v>74200</v>
+      </c>
       <c r="H1948" s="10">
         <v>75200</v>
       </c>
@@ -39636,9 +39666,15 @@
       <c r="D1949" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E1949" s="18"/>
-      <c r="F1949" s="18"/>
-      <c r="G1949" s="18"/>
+      <c r="E1949" s="18">
+        <v>75215</v>
+      </c>
+      <c r="F1949" s="18">
+        <v>76100</v>
+      </c>
+      <c r="G1949" s="18">
+        <v>74100</v>
+      </c>
       <c r="H1949" s="10">
         <v>75100</v>
       </c>
@@ -39656,9 +39692,15 @@
       <c r="D1950" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E1950" s="18"/>
-      <c r="F1950" s="18"/>
-      <c r="G1950" s="18"/>
+      <c r="E1950" s="18">
+        <v>75093</v>
+      </c>
+      <c r="F1950" s="18">
+        <v>76000</v>
+      </c>
+      <c r="G1950" s="18">
+        <v>73900</v>
+      </c>
       <c r="H1950" s="10">
         <v>74950</v>
       </c>
@@ -39676,9 +39718,15 @@
       <c r="D1951" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E1951" s="18"/>
-      <c r="F1951" s="18"/>
-      <c r="G1951" s="18"/>
+      <c r="E1951" s="18">
+        <v>74965</v>
+      </c>
+      <c r="F1951" s="18">
+        <v>75900</v>
+      </c>
+      <c r="G1951" s="18">
+        <v>73800</v>
+      </c>
       <c r="H1951" s="10">
         <v>74850</v>
       </c>
@@ -39696,9 +39744,15 @@
       <c r="D1952" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E1952" s="18"/>
-      <c r="F1952" s="18"/>
-      <c r="G1952" s="18"/>
+      <c r="E1952" s="18">
+        <v>74835</v>
+      </c>
+      <c r="F1952" s="18">
+        <v>75900</v>
+      </c>
+      <c r="G1952" s="18">
+        <v>73800</v>
+      </c>
       <c r="H1952" s="10">
         <v>74850</v>
       </c>
@@ -39716,9 +39770,15 @@
       <c r="D1953" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E1953" s="18"/>
-      <c r="F1953" s="18"/>
-      <c r="G1953" s="18"/>
+      <c r="E1953" s="18">
+        <v>74858</v>
+      </c>
+      <c r="F1953" s="18">
+        <v>76000</v>
+      </c>
+      <c r="G1953" s="18">
+        <v>74100</v>
+      </c>
       <c r="H1953" s="10">
         <v>75050</v>
       </c>
@@ -39736,9 +39796,15 @@
       <c r="D1954" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E1954" s="18"/>
-      <c r="F1954" s="18"/>
-      <c r="G1954" s="18"/>
+      <c r="E1954" s="18">
+        <v>75058</v>
+      </c>
+      <c r="F1954" s="18">
+        <v>76000</v>
+      </c>
+      <c r="G1954" s="18">
+        <v>74100</v>
+      </c>
       <c r="H1954" s="10">
         <v>75050</v>
       </c>
@@ -39756,9 +39822,15 @@
       <c r="D1955" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E1955" s="18"/>
-      <c r="F1955" s="18"/>
-      <c r="G1955" s="18"/>
+      <c r="E1955" s="18">
+        <v>75065</v>
+      </c>
+      <c r="F1955" s="18">
+        <v>75900</v>
+      </c>
+      <c r="G1955" s="18">
+        <v>73900</v>
+      </c>
       <c r="H1955" s="10">
         <v>74900</v>
       </c>
@@ -39776,9 +39848,15 @@
       <c r="D1956" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E1956" s="18"/>
-      <c r="F1956" s="18"/>
-      <c r="G1956" s="18"/>
+      <c r="E1956" s="18">
+        <v>74908</v>
+      </c>
+      <c r="F1956" s="18">
+        <v>75800</v>
+      </c>
+      <c r="G1956" s="18">
+        <v>74000</v>
+      </c>
       <c r="H1956" s="10">
         <v>74900</v>
       </c>
@@ -39796,9 +39874,15 @@
       <c r="D1957" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E1957" s="18"/>
-      <c r="F1957" s="18"/>
-      <c r="G1957" s="18"/>
+      <c r="E1957" s="18">
+        <v>74915</v>
+      </c>
+      <c r="F1957" s="18">
+        <v>75700</v>
+      </c>
+      <c r="G1957" s="18">
+        <v>73800</v>
+      </c>
       <c r="H1957" s="10">
         <v>74750</v>
       </c>
@@ -39816,9 +39900,15 @@
       <c r="D1958" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E1958" s="18"/>
-      <c r="F1958" s="18"/>
-      <c r="G1958" s="18"/>
+      <c r="E1958" s="18">
+        <v>74743</v>
+      </c>
+      <c r="F1958" s="18">
+        <v>75800</v>
+      </c>
+      <c r="G1958" s="18">
+        <v>73900</v>
+      </c>
       <c r="H1958" s="10">
         <v>74850</v>
       </c>
@@ -39836,9 +39926,15 @@
       <c r="D1959" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E1959" s="18"/>
-      <c r="F1959" s="18"/>
-      <c r="G1959" s="18"/>
+      <c r="E1959" s="18">
+        <v>74865</v>
+      </c>
+      <c r="F1959" s="18">
+        <v>75800</v>
+      </c>
+      <c r="G1959" s="18">
+        <v>74000</v>
+      </c>
       <c r="H1959" s="10">
         <v>74900</v>
       </c>
@@ -39856,9 +39952,15 @@
       <c r="D1960" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E1960" s="18"/>
-      <c r="F1960" s="18"/>
-      <c r="G1960" s="18"/>
+      <c r="E1960" s="18">
+        <v>74885</v>
+      </c>
+      <c r="F1960" s="18">
+        <v>75900</v>
+      </c>
+      <c r="G1960" s="18">
+        <v>74200</v>
+      </c>
       <c r="H1960" s="10">
         <v>75050</v>
       </c>
@@ -39876,9 +39978,15 @@
       <c r="D1961" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E1961" s="18"/>
-      <c r="F1961" s="18"/>
-      <c r="G1961" s="18"/>
+      <c r="E1961" s="18">
+        <v>75035</v>
+      </c>
+      <c r="F1961" s="18">
+        <v>75700</v>
+      </c>
+      <c r="G1961" s="18">
+        <v>74100</v>
+      </c>
       <c r="H1961" s="10">
         <v>74900</v>
       </c>
@@ -39896,9 +40004,15 @@
       <c r="D1962" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E1962" s="18"/>
-      <c r="F1962" s="18"/>
-      <c r="G1962" s="18"/>
+      <c r="E1962" s="18">
+        <v>75300</v>
+      </c>
+      <c r="F1962" s="18">
+        <v>75300</v>
+      </c>
+      <c r="G1962" s="18">
+        <v>73600</v>
+      </c>
       <c r="H1962" s="10">
         <v>74450</v>
       </c>
@@ -39916,9 +40030,15 @@
       <c r="D1963" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E1963" s="18"/>
-      <c r="F1963" s="18"/>
-      <c r="G1963" s="18"/>
+      <c r="E1963" s="18">
+        <v>75200</v>
+      </c>
+      <c r="F1963" s="18">
+        <v>75200</v>
+      </c>
+      <c r="G1963" s="18">
+        <v>73400</v>
+      </c>
       <c r="H1963" s="10">
         <v>74300</v>
       </c>
@@ -39936,9 +40056,15 @@
       <c r="D1964" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E1964" s="18"/>
-      <c r="F1964" s="18"/>
-      <c r="G1964" s="18"/>
+      <c r="E1964" s="18">
+        <v>75000</v>
+      </c>
+      <c r="F1964" s="18">
+        <v>75000</v>
+      </c>
+      <c r="G1964" s="18">
+        <v>73200</v>
+      </c>
       <c r="H1964" s="10">
         <v>74100</v>
       </c>
@@ -39956,9 +40082,15 @@
       <c r="D1965" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E1965" s="18"/>
-      <c r="F1965" s="18"/>
-      <c r="G1965" s="18"/>
+      <c r="E1965" s="18">
+        <v>75000</v>
+      </c>
+      <c r="F1965" s="18">
+        <v>75000</v>
+      </c>
+      <c r="G1965" s="18">
+        <v>73200</v>
+      </c>
       <c r="H1965" s="10">
         <v>74100</v>
       </c>
@@ -39976,9 +40108,15 @@
       <c r="D1966" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E1966" s="18"/>
-      <c r="F1966" s="18"/>
-      <c r="G1966" s="18"/>
+      <c r="E1966" s="18">
+        <v>75000</v>
+      </c>
+      <c r="F1966" s="18">
+        <v>75000</v>
+      </c>
+      <c r="G1966" s="18">
+        <v>73200</v>
+      </c>
       <c r="H1966" s="10">
         <v>74100</v>
       </c>
@@ -39996,9 +40134,15 @@
       <c r="D1967" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E1967" s="18"/>
-      <c r="F1967" s="18"/>
-      <c r="G1967" s="18"/>
+      <c r="E1967" s="18">
+        <v>75000</v>
+      </c>
+      <c r="F1967" s="18">
+        <v>75000</v>
+      </c>
+      <c r="G1967" s="18">
+        <v>73600</v>
+      </c>
       <c r="H1967" s="10">
         <v>74300</v>
       </c>
@@ -40016,9 +40160,15 @@
       <c r="D1968" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E1968" s="18"/>
-      <c r="F1968" s="18"/>
-      <c r="G1968" s="18"/>
+      <c r="E1968" s="18">
+        <v>74900</v>
+      </c>
+      <c r="F1968" s="18">
+        <v>74900</v>
+      </c>
+      <c r="G1968" s="18">
+        <v>73400</v>
+      </c>
       <c r="H1968" s="10">
         <v>74150</v>
       </c>
@@ -40036,9 +40186,15 @@
       <c r="D1969" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E1969" s="18"/>
-      <c r="F1969" s="18"/>
-      <c r="G1969" s="18"/>
+      <c r="E1969" s="18">
+        <v>74800</v>
+      </c>
+      <c r="F1969" s="18">
+        <v>74800</v>
+      </c>
+      <c r="G1969" s="18">
+        <v>73200</v>
+      </c>
       <c r="H1969" s="10">
         <v>74000</v>
       </c>
@@ -40056,9 +40212,15 @@
       <c r="D1970" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E1970" s="18"/>
-      <c r="F1970" s="18"/>
-      <c r="G1970" s="18"/>
+      <c r="E1970" s="18">
+        <v>74800</v>
+      </c>
+      <c r="F1970" s="18">
+        <v>74800</v>
+      </c>
+      <c r="G1970" s="18">
+        <v>73400</v>
+      </c>
       <c r="H1970" s="10">
         <v>74100</v>
       </c>
@@ -40076,9 +40238,15 @@
       <c r="D1971" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E1971" s="18"/>
-      <c r="F1971" s="18"/>
-      <c r="G1971" s="18"/>
+      <c r="E1971" s="18">
+        <v>74800</v>
+      </c>
+      <c r="F1971" s="18">
+        <v>74800</v>
+      </c>
+      <c r="G1971" s="18">
+        <v>73400</v>
+      </c>
       <c r="H1971" s="10">
         <v>74100</v>
       </c>
@@ -40096,9 +40264,15 @@
       <c r="D1972" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E1972" s="18"/>
-      <c r="F1972" s="18"/>
-      <c r="G1972" s="18"/>
+      <c r="E1972" s="18">
+        <v>74700</v>
+      </c>
+      <c r="F1972" s="18">
+        <v>74700</v>
+      </c>
+      <c r="G1972" s="18">
+        <v>73100</v>
+      </c>
       <c r="H1972" s="10">
         <v>73900</v>
       </c>
@@ -44163,6 +44337,58 @@
       </c>
       <c r="H2173" s="12">
         <v>158000</v>
+      </c>
+    </row>
+    <row r="2174" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2174" s="3">
+        <v>46041</v>
+      </c>
+      <c r="B2174" s="11">
+        <v>46041</v>
+      </c>
+      <c r="C2174" s="9">
+        <v>0.625</v>
+      </c>
+      <c r="D2174" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2174" s="19">
+        <v>151000</v>
+      </c>
+      <c r="F2174" s="19">
+        <v>158032</v>
+      </c>
+      <c r="G2174" s="19">
+        <v>146000</v>
+      </c>
+      <c r="H2174" s="12">
+        <v>151000</v>
+      </c>
+    </row>
+    <row r="2175" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2175" s="3">
+        <v>46042</v>
+      </c>
+      <c r="B2175" s="11">
+        <v>46042</v>
+      </c>
+      <c r="C2175" s="9">
+        <v>0.625</v>
+      </c>
+      <c r="D2175" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2175" s="19">
+        <v>151015</v>
+      </c>
+      <c r="F2175" s="19">
+        <v>156000</v>
+      </c>
+      <c r="G2175" s="19">
+        <v>149000</v>
+      </c>
+      <c r="H2175" s="12">
+        <v>152500</v>
       </c>
     </row>
   </sheetData>

--- a/data/commodity/Lithium.xlsx
+++ b/data/commodity/Lithium.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\PycharmProjects\AlternativeData\data\commodity\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CORE16\PycharmProjects\AlternativeData\data\commodity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB330AD9-848B-43DC-BEB6-71764A77B493}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11C7B8EE-25AA-4412-98A6-5C917DFD3D6D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17985" yWindow="780" windowWidth="18015" windowHeight="20685" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2188" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2190" uniqueCount="16">
   <si>
     <t>source</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -96,11 +96,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="179" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-    <numFmt numFmtId="180" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="178" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="179" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -174,7 +174,7 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -183,52 +183,52 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="179" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="178" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="179" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="180" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="180" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="180" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="179" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="쉼표" xfId="1" builtinId="3"/>
@@ -511,13 +511,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H2175"/>
+  <dimension ref="A1:H2177"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <pane xSplit="8" ySplit="5" topLeftCell="I1952" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="8" ySplit="5" topLeftCell="I2151" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="M1951" sqref="M1951"/>
+      <selection pane="bottomRight" activeCell="J2179" sqref="J2179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -44389,6 +44389,58 @@
       </c>
       <c r="H2175" s="12">
         <v>152500</v>
+      </c>
+    </row>
+    <row r="2176" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2176" s="3">
+        <v>46043</v>
+      </c>
+      <c r="B2176" s="11">
+        <v>46043</v>
+      </c>
+      <c r="C2176" s="9">
+        <v>0.625</v>
+      </c>
+      <c r="D2176" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2176" s="19">
+        <v>152485</v>
+      </c>
+      <c r="F2176" s="19">
+        <v>162000</v>
+      </c>
+      <c r="G2176" s="19">
+        <v>152470</v>
+      </c>
+      <c r="H2176" s="12">
+        <v>158500</v>
+      </c>
+    </row>
+    <row r="2177" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2177" s="3">
+        <v>46044</v>
+      </c>
+      <c r="B2177" s="11">
+        <v>46044</v>
+      </c>
+      <c r="C2177" s="9">
+        <v>0.625</v>
+      </c>
+      <c r="D2177" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2177" s="19">
+        <v>158532</v>
+      </c>
+      <c r="F2177" s="19">
+        <v>168000</v>
+      </c>
+      <c r="G2177" s="19">
+        <v>158468</v>
+      </c>
+      <c r="H2177" s="12">
+        <v>164500</v>
       </c>
     </row>
   </sheetData>

--- a/data/commodity/Lithium.xlsx
+++ b/data/commodity/Lithium.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\PycharmProjects\AlternativeData\data\commodity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FD1C3D1-497C-4722-AF43-F7F9E197D9D0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D761B510-E4E0-4CFA-9D30-26150A991B81}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17985" yWindow="780" windowWidth="18015" windowHeight="20685" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2190" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2191" uniqueCount="16">
   <si>
     <t>source</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -97,11 +97,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="179" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-    <numFmt numFmtId="180" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="178" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="179" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -175,7 +175,7 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -184,52 +184,52 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="179" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="178" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="179" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="180" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="180" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="180" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="179" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="쉼표" xfId="1" builtinId="3"/>
@@ -14428,13 +14428,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H2177"/>
+  <dimension ref="A1:H2178"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="8" ySplit="5" topLeftCell="I2166" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="5" topLeftCell="I2160" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="I2177" sqref="I2177"/>
+      <selection pane="bottomRight" activeCell="I2180" sqref="I2180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -58358,6 +58358,32 @@
       </c>
       <c r="H2177" s="12">
         <v>164500</v>
+      </c>
+    </row>
+    <row r="2178" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2178" s="3">
+        <v>46045</v>
+      </c>
+      <c r="B2178" s="11">
+        <v>46045</v>
+      </c>
+      <c r="C2178" s="9">
+        <v>0.625</v>
+      </c>
+      <c r="D2178" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2178" s="19">
+        <v>164484</v>
+      </c>
+      <c r="F2178" s="19">
+        <v>174000</v>
+      </c>
+      <c r="G2178" s="19">
+        <v>164484</v>
+      </c>
+      <c r="H2178" s="12">
+        <v>171000</v>
       </c>
     </row>
   </sheetData>

--- a/data/commodity/Lithium.xlsx
+++ b/data/commodity/Lithium.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tommy/Desktop/Pycharm/AlternativeData/data/commodity/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59EC57C5-420A-2D4D-B67D-0D1914372D36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{707D63C4-DE54-ED40-A8CA-DBBDA22227E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="27900" yWindow="1540" windowWidth="18020" windowHeight="20680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2191" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2192" uniqueCount="16">
   <si>
     <t>source</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -14427,13 +14427,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H2178"/>
+  <dimension ref="A1:H2179"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="8" ySplit="5" topLeftCell="I2135" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="5" topLeftCell="I2136" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="I2165" sqref="I2165"/>
+      <selection pane="bottomRight" activeCell="J2157" sqref="J2157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -58383,6 +58383,32 @@
       </c>
       <c r="H2178" s="12">
         <v>171000</v>
+      </c>
+    </row>
+    <row r="2179" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A2179" s="3">
+        <v>46045</v>
+      </c>
+      <c r="B2179" s="11">
+        <v>46048</v>
+      </c>
+      <c r="C2179" s="9">
+        <v>0.625</v>
+      </c>
+      <c r="D2179" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2179" s="19">
+        <v>171034</v>
+      </c>
+      <c r="F2179" s="19">
+        <v>185000</v>
+      </c>
+      <c r="G2179" s="19">
+        <v>170966</v>
+      </c>
+      <c r="H2179" s="12">
+        <v>181500</v>
       </c>
     </row>
   </sheetData>

--- a/data/commodity/Lithium.xlsx
+++ b/data/commodity/Lithium.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\PycharmProjects\AlternativeData\data\commodity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{328F1B51-5CD2-4300-A954-EC2DCC727B4C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68DE2238-D68A-4F22-BB28-6596C2E2BD9C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="27900" yWindow="1545" windowWidth="18015" windowHeight="20685" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2194" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2196" uniqueCount="16">
   <si>
     <t>source</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -89,6 +89,7 @@
   </si>
   <si>
     <t>https://tradingeconomics.com/commodity/lithium</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -14427,13 +14428,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H2181"/>
+  <dimension ref="A1:H2183"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="8" ySplit="5" topLeftCell="I2154" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="K2181" sqref="K2181"/>
+      <selection pane="bottomRight" activeCell="L2177" sqref="L2177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -58461,6 +58462,58 @@
       </c>
       <c r="H2181" s="12">
         <v>172000</v>
+      </c>
+    </row>
+    <row r="2182" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2182" s="11">
+        <v>46051</v>
+      </c>
+      <c r="B2182" s="11">
+        <v>46051</v>
+      </c>
+      <c r="C2182" s="9">
+        <v>0.625</v>
+      </c>
+      <c r="D2182" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2182" s="19">
+        <v>168000</v>
+      </c>
+      <c r="F2182" s="19">
+        <v>174000</v>
+      </c>
+      <c r="G2182" s="19">
+        <v>162000</v>
+      </c>
+      <c r="H2182" s="12">
+        <v>168000</v>
+      </c>
+    </row>
+    <row r="2183" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2183" s="11">
+        <v>46052</v>
+      </c>
+      <c r="B2183" s="11">
+        <v>46052</v>
+      </c>
+      <c r="C2183" s="9">
+        <v>0.625</v>
+      </c>
+      <c r="D2183" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2183" s="19">
+        <v>167966</v>
+      </c>
+      <c r="F2183" s="19">
+        <v>168034</v>
+      </c>
+      <c r="G2183" s="19">
+        <v>154000</v>
+      </c>
+      <c r="H2183" s="12">
+        <v>160500</v>
       </c>
     </row>
   </sheetData>

--- a/data/commodity/Lithium.xlsx
+++ b/data/commodity/Lithium.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\PycharmProjects\AlternativeData\data\commodity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68DE2238-D68A-4F22-BB28-6596C2E2BD9C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F12B2F1-9B20-410E-9112-361F445D65BA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="27900" yWindow="1545" windowWidth="18015" windowHeight="20685" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -14434,7 +14434,7 @@
       <pane xSplit="8" ySplit="5" topLeftCell="I2154" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="L2177" sqref="L2177"/>
+      <selection pane="bottomRight" activeCell="F2186" sqref="F2186"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/data/commodity/Lithium.xlsx
+++ b/data/commodity/Lithium.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\PycharmProjects\AlternativeData\data\commodity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F12B2F1-9B20-410E-9112-361F445D65BA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68DE2238-D68A-4F22-BB28-6596C2E2BD9C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="27900" yWindow="1545" windowWidth="18015" windowHeight="20685" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -14434,7 +14434,7 @@
       <pane xSplit="8" ySplit="5" topLeftCell="I2154" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="F2186" sqref="F2186"/>
+      <selection pane="bottomRight" activeCell="L2177" sqref="L2177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/data/commodity/Lithium.xlsx
+++ b/data/commodity/Lithium.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\PycharmProjects\AlternativeData\data\commodity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68DE2238-D68A-4F22-BB28-6596C2E2BD9C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{836B52A4-C7C0-4745-A2CE-4CD601513831}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="27900" yWindow="1545" windowWidth="18015" windowHeight="20685" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2196" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2200" uniqueCount="16">
   <si>
     <t>source</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -14428,13 +14428,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H2183"/>
+  <dimension ref="A1:H2187"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="8" ySplit="5" topLeftCell="I2154" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="5" topLeftCell="I2163" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="L2177" sqref="L2177"/>
+      <selection pane="bottomRight" activeCell="E2187" sqref="E2187"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -58514,6 +58514,98 @@
       </c>
       <c r="H2183" s="12">
         <v>160500</v>
+      </c>
+    </row>
+    <row r="2184" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2184" s="3">
+        <v>46055</v>
+      </c>
+      <c r="B2184" s="3">
+        <v>46055</v>
+      </c>
+      <c r="C2184" s="9">
+        <v>0.625</v>
+      </c>
+      <c r="D2184" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2184" s="19">
+        <v>160468</v>
+      </c>
+      <c r="F2184" s="19">
+        <v>165967</v>
+      </c>
+      <c r="G2184" s="19">
+        <v>144971</v>
+      </c>
+      <c r="H2184" s="12">
+        <v>155469</v>
+      </c>
+    </row>
+    <row r="2185" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2185" s="3">
+        <v>46056</v>
+      </c>
+      <c r="B2185" s="3">
+        <v>46056</v>
+      </c>
+      <c r="C2185" s="9">
+        <v>0.625</v>
+      </c>
+      <c r="D2185" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2185" s="19">
+        <v>155469</v>
+      </c>
+      <c r="F2185" s="19">
+        <v>164967</v>
+      </c>
+      <c r="G2185" s="19">
+        <v>141972</v>
+      </c>
+      <c r="H2185" s="12">
+        <v>153469</v>
+      </c>
+    </row>
+    <row r="2186" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2186" s="3">
+        <v>46057</v>
+      </c>
+      <c r="B2186" s="3">
+        <v>46057</v>
+      </c>
+      <c r="C2186" s="9">
+        <v>0.625</v>
+      </c>
+      <c r="D2186" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2186" s="19">
+        <v>153000</v>
+      </c>
+      <c r="F2186" s="19">
+        <v>164000</v>
+      </c>
+      <c r="G2186" s="19">
+        <v>142000</v>
+      </c>
+      <c r="H2186" s="12">
+        <v>153000</v>
+      </c>
+    </row>
+    <row r="2187" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2187" s="3">
+        <v>46058</v>
+      </c>
+      <c r="B2187" s="3">
+        <v>46058</v>
+      </c>
+      <c r="C2187" s="9">
+        <v>0.625</v>
+      </c>
+      <c r="D2187" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/data/commodity/Lithium.xlsx
+++ b/data/commodity/Lithium.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\PycharmProjects\AlternativeData\data\commodity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{836B52A4-C7C0-4745-A2CE-4CD601513831}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5E7D124-BF1B-4648-A41F-25F568EAD8D4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="27900" yWindow="1545" windowWidth="18015" windowHeight="20685" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2200" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2202" uniqueCount="16">
   <si>
     <t>source</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -14428,13 +14428,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H2187"/>
+  <dimension ref="A1:H2189"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="8" ySplit="5" topLeftCell="I2163" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="E2187" sqref="E2187"/>
+      <selection pane="bottomRight" activeCell="K2184" sqref="K2184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -58607,11 +58607,75 @@
       <c r="D2187" s="4" t="s">
         <v>10</v>
       </c>
+      <c r="E2187" s="19">
+        <v>144000</v>
+      </c>
+      <c r="F2187" s="19">
+        <v>153031</v>
+      </c>
+      <c r="G2187" s="19">
+        <v>136000</v>
+      </c>
+      <c r="H2187" s="12">
+        <v>144000</v>
+      </c>
+    </row>
+    <row r="2188" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2188" s="3">
+        <v>46059</v>
+      </c>
+      <c r="B2188" s="11">
+        <v>46059</v>
+      </c>
+      <c r="C2188" s="9">
+        <v>0.625</v>
+      </c>
+      <c r="D2188" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2188" s="19">
+        <v>134500</v>
+      </c>
+      <c r="F2188" s="19">
+        <v>144029</v>
+      </c>
+      <c r="G2188" s="19">
+        <v>127000</v>
+      </c>
+      <c r="H2188" s="12">
+        <v>134500</v>
+      </c>
+    </row>
+    <row r="2189" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2189" s="3">
+        <v>46062</v>
+      </c>
+      <c r="B2189" s="11">
+        <v>46062</v>
+      </c>
+      <c r="C2189" s="9">
+        <v>0.625</v>
+      </c>
+      <c r="D2189" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2189" s="19">
+        <v>134527</v>
+      </c>
+      <c r="F2189" s="19">
+        <v>140000</v>
+      </c>
+      <c r="G2189" s="19">
+        <v>131000</v>
+      </c>
+      <c r="H2189" s="12">
+        <v>135500</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/data/commodity/Lithium.xlsx
+++ b/data/commodity/Lithium.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\PycharmProjects\AlternativeData\data\commodity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5E7D124-BF1B-4648-A41F-25F568EAD8D4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E12C55B1-F5BA-4FE9-98E5-9809065E736D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="27900" yWindow="1545" windowWidth="18015" windowHeight="20685" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2202" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2204" uniqueCount="16">
   <si>
     <t>source</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -14428,13 +14428,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H2189"/>
+  <dimension ref="A1:H2191"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="8" ySplit="5" topLeftCell="I2163" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="K2184" sqref="K2184"/>
+      <selection pane="bottomRight" activeCell="D2195" sqref="D2195"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -58670,6 +58670,58 @@
       </c>
       <c r="H2189" s="12">
         <v>135500</v>
+      </c>
+    </row>
+    <row r="2190" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2190" s="3">
+        <v>46063</v>
+      </c>
+      <c r="B2190" s="3">
+        <v>46063</v>
+      </c>
+      <c r="C2190" s="9">
+        <v>0.625</v>
+      </c>
+      <c r="D2190" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2190" s="19">
+        <v>136000</v>
+      </c>
+      <c r="F2190" s="19">
+        <v>140000</v>
+      </c>
+      <c r="G2190" s="19">
+        <v>132000</v>
+      </c>
+      <c r="H2190" s="12">
+        <v>136000</v>
+      </c>
+    </row>
+    <row r="2191" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2191" s="3">
+        <v>46064</v>
+      </c>
+      <c r="B2191" s="3">
+        <v>46064</v>
+      </c>
+      <c r="C2191" s="9">
+        <v>0.625</v>
+      </c>
+      <c r="D2191" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2191" s="19">
+        <v>135973</v>
+      </c>
+      <c r="F2191" s="19">
+        <v>142000</v>
+      </c>
+      <c r="G2191" s="19">
+        <v>134000</v>
+      </c>
+      <c r="H2191" s="12">
+        <v>138000</v>
       </c>
     </row>
   </sheetData>
